--- a/docs/报销文件/hardware_list.xlsx
+++ b/docs/报销文件/hardware_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\EECM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\EECM\docs\报销文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC875A-3C92-4B7C-8F79-7C33281F75B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A3251-3AC8-4DE0-ADE7-5F9EFD204FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="5415" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>单品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jy901s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5~1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +83,46 @@
   </si>
   <si>
     <t>9.6V锂电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4系统板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ph2.0排线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openmv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损毁*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游标卡尺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,22 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,150 +475,164 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.61</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5*C5</f>
-        <v>10.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.97</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D10" si="0">B6*C6</f>
-        <v>29.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>58.8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>29.8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>30.089999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="1">
-        <f>SUM(D2:D10)</f>
-        <v>411.54</v>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
